--- a/DesignerConfigs/Datas/WithdrawableLevels.xlsx
+++ b/DesignerConfigs/Datas/WithdrawableLevels.xlsx
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1320,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/WithdrawableLevels.xlsx
+++ b/DesignerConfigs/Datas/WithdrawableLevels.xlsx
@@ -1229,13 +1229,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="11.875" customWidth="1"/>
   </cols>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1304,22 +1304,6 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
         <v>19</v>
       </c>
     </row>
